--- a/IT002-OOP/Điểm thực hành/it002m22pmcl/it002m22pmcl1.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002m22pmcl/it002m22pmcl1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m22pmcl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m22pmcl (done)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CAC997-7DD8-43FC-85F0-CE8184A7B05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AB6A97-2FF5-4176-8FC0-6FA456F1696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +145,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,15 +192,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -499,7 +505,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C2" sqref="C2:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,26 +555,25 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>800</v>
-      </c>
-      <c r="D2" s="3">
-        <v>800</v>
-      </c>
-      <c r="E2" s="3">
-        <v>800</v>
-      </c>
-      <c r="F2" s="3">
-        <v>800</v>
-      </c>
-      <c r="G2" s="3">
-        <v>800</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="C2" s="4">
+        <v>800</v>
+      </c>
+      <c r="D2" s="4">
+        <v>800</v>
+      </c>
+      <c r="E2" s="4">
+        <v>800</v>
+      </c>
+      <c r="F2" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2" s="4">
+        <v>800</v>
+      </c>
+      <c r="H2" s="4">
         <v>10</v>
       </c>
-      <c r="I2" s="5">
-        <f>C2/800+D2/800+E2/800+F2/800+G2/800+H2/2</f>
+      <c r="I2" s="4">
         <v>10</v>
       </c>
     </row>
@@ -579,26 +584,25 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
-        <v>800</v>
-      </c>
-      <c r="D3" s="3">
-        <v>800</v>
-      </c>
-      <c r="E3" s="3">
-        <v>800</v>
-      </c>
-      <c r="F3" s="3">
-        <v>800</v>
-      </c>
-      <c r="G3" s="3">
-        <v>800</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="C3" s="4">
+        <v>800</v>
+      </c>
+      <c r="D3" s="4">
+        <v>800</v>
+      </c>
+      <c r="E3" s="4">
+        <v>800</v>
+      </c>
+      <c r="F3" s="4">
+        <v>800</v>
+      </c>
+      <c r="G3" s="4">
+        <v>800</v>
+      </c>
+      <c r="H3" s="4">
         <v>9</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I25" si="0">C3/800+D3/800+E3/800+F3/800+G3/800+H3/2</f>
+      <c r="I3" s="4">
         <v>9.5</v>
       </c>
     </row>
@@ -609,27 +613,26 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
-        <v>800</v>
-      </c>
-      <c r="D4" s="3">
-        <v>600</v>
-      </c>
-      <c r="E4" s="3">
-        <v>600</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="C4" s="4">
+        <v>800</v>
+      </c>
+      <c r="D4" s="4">
+        <v>600</v>
+      </c>
+      <c r="E4" s="4">
+        <v>600</v>
+      </c>
+      <c r="F4" s="4">
         <v>500</v>
       </c>
-      <c r="G4" s="3">
-        <v>600</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="4">
+        <v>600</v>
+      </c>
+      <c r="H4" s="4">
         <v>7</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>7.375</v>
+      <c r="I4" s="4">
+        <v>7.38</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -639,16 +642,23 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
+      <c r="I5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -659,26 +669,25 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
-        <v>800</v>
-      </c>
-      <c r="D6" s="3">
-        <v>800</v>
-      </c>
-      <c r="E6" s="3">
-        <v>800</v>
-      </c>
-      <c r="F6" s="3">
-        <v>800</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="C6" s="4">
+        <v>800</v>
+      </c>
+      <c r="D6" s="4">
+        <v>800</v>
+      </c>
+      <c r="E6" s="4">
+        <v>800</v>
+      </c>
+      <c r="F6" s="4">
+        <v>800</v>
+      </c>
+      <c r="G6" s="4">
         <v>800</v>
       </c>
       <c r="H6" s="4">
         <v>9</v>
       </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
+      <c r="I6" s="4">
         <v>9.5</v>
       </c>
     </row>
@@ -689,26 +698,25 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
-        <v>800</v>
-      </c>
-      <c r="D7" s="3">
-        <v>800</v>
-      </c>
-      <c r="E7" s="3">
-        <v>800</v>
-      </c>
-      <c r="F7" s="3">
-        <v>800</v>
-      </c>
-      <c r="G7" s="3">
-        <v>800</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="C7" s="4">
+        <v>800</v>
+      </c>
+      <c r="D7" s="4">
+        <v>800</v>
+      </c>
+      <c r="E7" s="4">
+        <v>800</v>
+      </c>
+      <c r="F7" s="4">
+        <v>800</v>
+      </c>
+      <c r="G7" s="4">
+        <v>800</v>
+      </c>
+      <c r="H7" s="4">
         <v>7</v>
       </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
+      <c r="I7" s="4">
         <v>8.5</v>
       </c>
     </row>
@@ -719,21 +727,26 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>750</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>400</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>6</v>
       </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>4.4375</v>
+      <c r="I8" s="4">
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -743,17 +756,26 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3">
+      <c r="C9" s="2">
+        <v>800</v>
+      </c>
+      <c r="D9" s="2">
+        <v>600</v>
+      </c>
+      <c r="E9" s="2">
+        <v>700</v>
+      </c>
+      <c r="F9" s="2">
+        <v>800</v>
+      </c>
+      <c r="G9" s="2">
+        <v>800</v>
+      </c>
+      <c r="H9" s="4">
         <v>8</v>
       </c>
-      <c r="I9" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="I9" s="4">
+        <v>8.6300000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -763,21 +785,26 @@
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="C10" s="2">
+        <v>775</v>
+      </c>
+      <c r="D10" s="2">
+        <v>400</v>
+      </c>
+      <c r="E10" s="4">
         <v>200</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="F10" s="2">
+        <v>300</v>
+      </c>
+      <c r="G10" s="4">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
+      <c r="I10" s="4">
+        <v>5.09</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -787,25 +814,24 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
-        <v>800</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
+      <c r="C11" s="4">
+        <v>800</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
         <v>150</v>
       </c>
-      <c r="F11" s="3">
-        <v>800</v>
-      </c>
-      <c r="G11" s="3">
-        <v>600</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="F11" s="4">
+        <v>800</v>
+      </c>
+      <c r="G11" s="4">
+        <v>600</v>
+      </c>
+      <c r="H11" s="4">
         <v>9.5</v>
       </c>
-      <c r="I11" s="5">
-        <f t="shared" si="0"/>
-        <v>7.6875</v>
+      <c r="I11" s="4">
+        <v>7.69</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -815,25 +841,26 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
-        <v>800</v>
-      </c>
-      <c r="D12" s="3">
-        <v>600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>600</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <v>600</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="C12" s="4">
+        <v>800</v>
+      </c>
+      <c r="D12" s="4">
+        <v>600</v>
+      </c>
+      <c r="E12" s="4">
+        <v>600</v>
+      </c>
+      <c r="F12" s="2">
+        <v>500</v>
+      </c>
+      <c r="G12" s="4">
+        <v>600</v>
+      </c>
+      <c r="H12" s="4">
         <v>7</v>
       </c>
-      <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>6.75</v>
+      <c r="I12" s="4">
+        <v>7.38</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -843,25 +870,26 @@
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13" s="2">
+        <v>775</v>
+      </c>
+      <c r="D13" s="4">
         <v>550</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>200</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>300</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>400</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <v>8.5</v>
       </c>
-      <c r="I13" s="5">
-        <f t="shared" si="0"/>
-        <v>6.0625</v>
+      <c r="I13" s="4">
+        <v>7.03</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -871,21 +899,20 @@
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
-        <v>600</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="4">
+        <v>600</v>
+      </c>
+      <c r="H14" s="4">
         <v>6</v>
       </c>
-      <c r="I14" s="5">
-        <f t="shared" si="0"/>
-        <v>4.625</v>
+      <c r="I14" s="4">
+        <v>4.63</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -895,23 +922,26 @@
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="2">
+        <v>525</v>
+      </c>
+      <c r="D15" s="4">
         <v>664.29</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3">
-        <v>700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>600</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="E15" s="2">
+        <v>66.67</v>
+      </c>
+      <c r="F15" s="2">
+        <v>800</v>
+      </c>
+      <c r="G15" s="4">
+        <v>600</v>
+      </c>
+      <c r="H15" s="4">
         <v>6.5</v>
       </c>
-      <c r="I15" s="5">
-        <f t="shared" si="0"/>
-        <v>5.7053624999999997</v>
+      <c r="I15" s="4">
+        <v>6.57</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -921,26 +951,25 @@
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3">
-        <v>800</v>
-      </c>
-      <c r="D16" s="3">
-        <v>800</v>
-      </c>
-      <c r="E16" s="3">
-        <v>800</v>
-      </c>
-      <c r="F16" s="3">
-        <v>800</v>
-      </c>
-      <c r="G16" s="3">
-        <v>800</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="C16" s="4">
+        <v>800</v>
+      </c>
+      <c r="D16" s="4">
+        <v>800</v>
+      </c>
+      <c r="E16" s="4">
+        <v>800</v>
+      </c>
+      <c r="F16" s="4">
+        <v>800</v>
+      </c>
+      <c r="G16" s="4">
+        <v>800</v>
+      </c>
+      <c r="H16" s="4">
         <v>9</v>
       </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
+      <c r="I16" s="4">
         <v>9.5</v>
       </c>
     </row>
@@ -951,25 +980,26 @@
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="C17" s="2">
+        <v>750</v>
+      </c>
+      <c r="D17" s="4">
         <v>550</v>
       </c>
-      <c r="E17" s="3">
-        <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="E17" s="4">
+        <v>600</v>
+      </c>
+      <c r="F17" s="4">
+        <v>800</v>
+      </c>
+      <c r="G17" s="4">
+        <v>600</v>
+      </c>
+      <c r="H17" s="4">
         <v>10</v>
       </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>8.1875</v>
+      <c r="I17" s="4">
+        <v>9.1300000000000008</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -979,16 +1009,25 @@
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
         <v>7</v>
       </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
+      <c r="I18" s="4">
         <v>3.5</v>
       </c>
     </row>
@@ -999,20 +1038,25 @@
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3">
-        <v>800</v>
-      </c>
-      <c r="D19" s="3">
-        <v>600</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3">
+      <c r="C19" s="4">
+        <v>800</v>
+      </c>
+      <c r="D19" s="4">
+        <v>600</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
         <v>8.5</v>
       </c>
-      <c r="I19" s="5">
-        <f t="shared" si="0"/>
+      <c r="I19" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1023,25 +1067,26 @@
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3">
-        <v>800</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
+      <c r="C20" s="4">
+        <v>800</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
         <v>750</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>600</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="4">
+        <v>600</v>
+      </c>
+      <c r="H20" s="4">
         <v>5</v>
       </c>
-      <c r="I20" s="5">
-        <f t="shared" si="0"/>
-        <v>5.8125</v>
+      <c r="I20" s="4">
+        <v>5.81</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1051,25 +1096,26 @@
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3">
-        <v>800</v>
-      </c>
-      <c r="D21" s="3">
-        <v>600</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
+      <c r="C21" s="4">
+        <v>800</v>
+      </c>
+      <c r="D21" s="4">
+        <v>600</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
-        <v>600</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="4">
+        <v>600</v>
+      </c>
+      <c r="H21" s="4">
         <v>8</v>
       </c>
-      <c r="I21" s="5">
-        <f t="shared" si="0"/>
-        <v>7.125</v>
+      <c r="I21" s="4">
+        <v>7.13</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1079,27 +1125,26 @@
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3">
-        <v>800</v>
-      </c>
-      <c r="D22" s="3">
-        <v>800</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="C22" s="4">
+        <v>800</v>
+      </c>
+      <c r="D22" s="4">
+        <v>800</v>
+      </c>
+      <c r="E22" s="4">
         <v>750</v>
       </c>
-      <c r="F22" s="3">
-        <v>800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>800</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="F22" s="4">
+        <v>800</v>
+      </c>
+      <c r="G22" s="4">
+        <v>800</v>
+      </c>
+      <c r="H22" s="4">
         <v>9</v>
       </c>
-      <c r="I22" s="5">
-        <f t="shared" si="0"/>
-        <v>9.4375</v>
+      <c r="I22" s="4">
+        <v>9.44</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1109,27 +1154,26 @@
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="3">
-        <v>800</v>
-      </c>
-      <c r="D23" s="3">
-        <v>600</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="C23" s="4">
+        <v>800</v>
+      </c>
+      <c r="D23" s="4">
+        <v>600</v>
+      </c>
+      <c r="E23" s="4">
         <v>750</v>
       </c>
-      <c r="F23" s="3">
-        <v>800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>600</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="F23" s="4">
+        <v>800</v>
+      </c>
+      <c r="G23" s="4">
+        <v>600</v>
+      </c>
+      <c r="H23" s="4">
         <v>7</v>
       </c>
-      <c r="I23" s="5">
-        <f t="shared" si="0"/>
-        <v>7.9375</v>
+      <c r="I23" s="4">
+        <v>7.94</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1139,17 +1183,26 @@
       <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
+      <c r="C24" s="2">
+        <v>524.29</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>600</v>
+      </c>
+      <c r="F24" s="2">
+        <v>350</v>
+      </c>
+      <c r="G24" s="2">
+        <v>600</v>
+      </c>
+      <c r="H24" s="4">
         <v>6</v>
       </c>
-      <c r="I24" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="I24" s="4">
+        <v>5.59</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1159,24 +1212,23 @@
       <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3">
-        <v>800</v>
-      </c>
-      <c r="D25" s="3">
-        <v>600</v>
-      </c>
-      <c r="E25" s="3">
-        <v>600</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
-        <v>800</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="C25" s="4">
+        <v>800</v>
+      </c>
+      <c r="D25" s="4">
+        <v>600</v>
+      </c>
+      <c r="E25" s="4">
+        <v>600</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>800</v>
+      </c>
+      <c r="H25" s="4">
         <v>7</v>
       </c>
-      <c r="I25" s="5">
-        <f t="shared" si="0"/>
+      <c r="I25" s="4">
         <v>7</v>
       </c>
     </row>
@@ -1187,7 +1239,7 @@
       </c>
       <c r="I26">
         <f>AVERAGE(I2:I25)</f>
-        <v>6.4538692708333336</v>
+        <v>6.9741666666666653</v>
       </c>
     </row>
   </sheetData>

--- a/IT002-OOP/Điểm thực hành/it002m22pmcl/it002m22pmcl1.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002m22pmcl/it002m22pmcl1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m22pmcl (done)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m22pmcl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AB6A97-2FF5-4176-8FC0-6FA456F1696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D978DDD6-A784-433B-AF0C-E41BA3C05356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I25"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -727,11 +727,11 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
+      <c r="C8" s="2">
+        <v>800</v>
+      </c>
+      <c r="D8" s="2">
+        <v>350</v>
       </c>
       <c r="E8" s="4">
         <v>750</v>
@@ -746,7 +746,8 @@
         <v>6</v>
       </c>
       <c r="I8" s="4">
-        <v>4.4400000000000004</v>
+        <f>C8/800+D8/800+E8/800+F8/800+G8/800+H8/2</f>
+        <v>5.875</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1239,7 +1240,7 @@
       </c>
       <c r="I26">
         <f>AVERAGE(I2:I25)</f>
-        <v>6.9741666666666653</v>
+        <v>7.0339583333333318</v>
       </c>
     </row>
   </sheetData>
